--- a/docs/HistoryVariables.xlsx
+++ b/docs/HistoryVariables.xlsx
@@ -585,24 +585,12 @@
     <t>sell_per_capita</t>
   </si>
   <si>
-    <t>power_of_demand</t>
-  </si>
-  <si>
-    <t>indivisual_mony_flow</t>
-  </si>
-  <si>
     <t>sell_per_capita_avg10</t>
   </si>
   <si>
     <t>buy_per_capita_avg10</t>
   </si>
   <si>
-    <t>power_of_demand_avg10</t>
-  </si>
-  <si>
-    <t>indivisual_mony_flow_total10</t>
-  </si>
-  <si>
     <t>سرانه ی خرید حقیقی به میلیون تومان</t>
   </si>
   <si>
@@ -657,24 +645,12 @@
     <t>برآیند ورود و خروج پول حقیقی 10 روزه روز قبل</t>
   </si>
   <si>
-    <t>y_power_of_demand</t>
-  </si>
-  <si>
-    <t>y_indivisual_mony_flow</t>
-  </si>
-  <si>
     <t>y_sell_per_capita_avg10</t>
   </si>
   <si>
     <t>y_buy_per_capita_avg10</t>
   </si>
   <si>
-    <t>y_power_of_demand_avg10</t>
-  </si>
-  <si>
-    <t>y_indivisual_mony_flow_total10</t>
-  </si>
-  <si>
     <t>متغیر</t>
   </si>
   <si>
@@ -688,6 +664,30 @@
   </si>
   <si>
     <t>y_mfi</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>mony_flow</t>
+  </si>
+  <si>
+    <t>mony_flow_total10</t>
+  </si>
+  <si>
+    <t>power_avg10</t>
+  </si>
+  <si>
+    <t>y_mony_flow_total10</t>
+  </si>
+  <si>
+    <t>y_power_avg10</t>
+  </si>
+  <si>
+    <t>y_mony_flow</t>
+  </si>
+  <si>
+    <t>y_power</t>
   </si>
 </sst>
 </file>
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1048,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>19</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s">
         <v>115</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s">
         <v>118</v>
@@ -1435,7 +1435,7 @@
         <v>185</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1443,55 +1443,55 @@
         <v>186</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B56" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B78" t="s">
         <v>159</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B84" t="s">
         <v>165</v>
@@ -1872,66 +1872,66 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B105" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B106" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B107" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B108" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B109" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B110" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B111" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
